--- a/projeto-base-selenium/src/test/java/SISTEMA/transacoes/processamento/processamento/ProcessamentoTest.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA/transacoes/processamento/processamento/ProcessamentoTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\ws_robo\projeto-base-selenium\src\test\java\SISTEMA\processamento\processamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipem.medeiros\Documents\02-cursos\SELENIUM\base-selenio\projeto-base-selenium\src\test\java\SISTEMA\transacoes\processamento\processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>modulos</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>pkProcessamento</t>
+  </si>
+  <si>
+    <t>Fechamento</t>
+  </si>
+  <si>
+    <t>ATIVOS</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,6 +498,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/projeto-base-selenium/src/test/java/SISTEMA/transacoes/processamento/processamento/ProcessamentoTest.xlsx
+++ b/projeto-base-selenium/src/test/java/SISTEMA/transacoes/processamento/processamento/ProcessamentoTest.xlsx
@@ -47,28 +47,28 @@
     <t>Abertura,Fechamento</t>
   </si>
   <si>
+    <t>04/01/2022</t>
+  </si>
+  <si>
+    <t>07/01/2022</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>pkProcessamento</t>
+  </si>
+  <si>
+    <t>Fechamento</t>
+  </si>
+  <si>
+    <t>ATIVOS</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>ATIVOS 60266</t>
-  </si>
-  <si>
-    <t>04/01/2022</t>
-  </si>
-  <si>
-    <t>07/01/2022</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>pkProcessamento</t>
-  </si>
-  <si>
-    <t>Fechamento</t>
-  </si>
-  <si>
-    <t>ATIVOS</t>
-  </si>
-  <si>
-    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -149,15 +149,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +441,7 @@
   <dimension ref="B1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +457,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -480,7 +477,7 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -489,33 +486,33 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
